--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed2/result_data_RandomForest.xlsx
@@ -474,12 +474,12 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.5145</v>
+        <v>16.4738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.956</v>
+        <v>-21.9866</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.68209999999999</v>
+        <v>-21.6816</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.61109999999999</v>
+        <v>-21.61049999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.52000000000002</v>
+        <v>18.24540000000002</v>
       </c>
     </row>
     <row r="19">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.89589999999998</v>
+        <v>-19.90399999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.10469999999998</v>
+        <v>-20.28849999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4783</v>
+        <v>16.4982</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.81549999999998</v>
+        <v>-21.68889999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -865,12 +865,12 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.0535</v>
+        <v>17.01649999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.14979999999996</v>
+        <v>-21.03239999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.77919999999999</v>
+        <v>16.86799999999998</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.67759999999998</v>
+        <v>-20.67699999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.22839999999999</v>
+        <v>15.5193</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.99699999999998</v>
+        <v>16.07799999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.88419999999999</v>
+        <v>16.0467</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.33119999999999</v>
+        <v>-20.0252</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.5505</v>
+        <v>16.52249999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.34099999999999</v>
+        <v>17.39439999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.7739</v>
+        <v>17.5078</v>
       </c>
     </row>
     <row r="52">
@@ -1324,12 +1324,12 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.2496</v>
+        <v>17.014</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9921</v>
+        <v>-21.8976</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5931</v>
+        <v>16.6081</v>
       </c>
     </row>
     <row r="56">
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.6618</v>
+        <v>16.72079999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.54710000000001</v>
+        <v>-22.69180000000003</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.48720000000001</v>
+        <v>16.72500000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.3749</v>
+        <v>-22.4299</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.62660000000001</v>
+        <v>15.6659</v>
       </c>
     </row>
     <row r="61">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.74869999999999</v>
+        <v>-21.79319999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6696</v>
+        <v>-21.64139999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.60850000000001</v>
+        <v>17.46880000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>17.09689999999998</v>
+        <v>17.05149999999998</v>
       </c>
     </row>
     <row r="75">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.15480000000002</v>
+        <v>-20.35450000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.77139999999999</v>
+        <v>-21.76619999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.27400000000002</v>
+        <v>17.29550000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1970,12 +1970,12 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.44409999999999</v>
+        <v>16.58499999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.56080000000001</v>
+        <v>-21.51220000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.77540000000002</v>
+        <v>18.65690000000003</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.65279999999999</v>
+        <v>-20.77889999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.7756</v>
+        <v>-21.76859999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
